--- a/_summary/RQ2.1_2.xlsx
+++ b/_summary/RQ2.1_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ICSE2016\_summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\data\ICSE2016\_summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1936,7 +1936,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2096,8 +2096,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2280,6 +2288,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2528,7 +2542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2539,6 +2553,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2864,11 +2896,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E634"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A604" workbookViewId="0">
-      <selection activeCell="A634" sqref="A634"/>
+    <sheetView tabSelected="1" topLeftCell="A613" workbookViewId="0">
+      <selection activeCell="G626" sqref="G626"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -2992,19 +3031,19 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>1.25161903091918E-3</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>1.10117608791694E-5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>113.66202414428</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3147,19 +3186,19 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>1.3585633335989901E-2</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>1.9992166447014002E-3</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>6.7954783049633196</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="6">
         <v>1.07953762546975E-11</v>
       </c>
     </row>
@@ -3285,19 +3324,19 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="A28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>1.5811016061030098E-2</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="5">
         <v>1.9690831375178399E-3</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="5">
         <v>8.0296335689314802</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="6">
         <v>9.7764221914455691E-16</v>
       </c>
     </row>
@@ -3440,19 +3479,19 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="A38" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>5.49645346928477E-3</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="5">
         <v>1.6243650392564501E-3</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="5">
         <v>3.3837550898046702</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="5">
         <v>7.1501752378550702E-4</v>
       </c>
     </row>
@@ -3493,19 +3532,19 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+      <c r="A42" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>3.1909315615841001E-3</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="6">
         <v>7.2091072373236403E-5</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="5">
         <v>44.262506528738001</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3699,19 +3738,19 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
+      <c r="A55" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="5">
         <v>4.43994227256165E-3</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="5">
         <v>4.5404288091472001E-4</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="5">
         <v>9.7786849198403694</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="6">
         <v>1.39004873011436E-22</v>
       </c>
     </row>
@@ -3854,19 +3893,19 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
+      <c r="A65" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="5">
         <v>7.3439291316091801E-3</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="5">
         <v>2.7801183876205501E-3</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="5">
         <v>2.6415886331713798</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="5">
         <v>8.2518213027237605E-3</v>
       </c>
     </row>
@@ -3992,19 +4031,19 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
+      <c r="A74" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="5">
         <v>5.4515973804562601E-3</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="6">
         <v>5.0779826170842401E-5</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="5">
         <v>107.357543173051</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4147,19 +4186,19 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
+      <c r="A84" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="5">
         <v>2.3803063645850501E-2</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="5">
         <v>3.8738515492359898E-3</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="5">
         <v>6.1445471885842</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="6">
         <v>8.0191948058097704E-10</v>
       </c>
     </row>
@@ -4302,19 +4341,19 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
+      <c r="A94" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="5">
         <v>1.3646956668478099E-2</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="5">
         <v>1.3645810257948299E-3</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="5">
         <v>10.000840119060801</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="6">
         <v>1.5110960051139699E-23</v>
       </c>
     </row>
@@ -4612,19 +4651,19 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
+      <c r="A114" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="5">
         <v>8.6933297460640296E-3</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="5">
         <v>2.73658930811101E-3</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="5">
         <v>3.1767023719261598</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="5">
         <v>1.4895982098875301E-3</v>
       </c>
     </row>
@@ -4767,19 +4806,19 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A124" t="s">
+      <c r="A124" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="5">
         <v>6.2593343820478197E-3</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="5">
         <v>3.1290181675224302E-4</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="5">
         <v>20.0041484163193</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="6">
         <v>5.06767321150425E-89</v>
       </c>
     </row>
@@ -5147,19 +5186,19 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A149" t="s">
+      <c r="A149" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="5">
         <v>7.6496710421142897E-3</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="5">
         <v>3.92031179549891E-4</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="5">
         <v>19.512914893394999</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149" s="6">
         <v>8.5278036355406302E-85</v>
       </c>
     </row>
@@ -5302,19 +5341,19 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A159" t="s">
+      <c r="A159" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="5">
         <v>8.3449946180778698E-3</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="5">
         <v>1.8076427509951999E-4</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="5">
         <v>46.165065599845398</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5457,19 +5496,19 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A169" t="s">
+      <c r="A169" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="5">
         <v>2.3856180774091899E-2</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="5">
         <v>1.8670699541955601E-3</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="5">
         <v>12.777336339478801</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E169" s="6">
         <v>2.1945741316217801E-37</v>
       </c>
     </row>
@@ -5663,19 +5702,19 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="8">
         <v>5.5658965209853702E-3</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182" s="8">
         <v>1.6129294212778201E-4</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182" s="8">
         <v>34.507997979080002</v>
       </c>
-      <c r="E182" s="3">
+      <c r="E182" s="9">
         <v>6.0856072717264702E-261</v>
       </c>
     </row>
@@ -5835,19 +5874,19 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A193" t="s">
+      <c r="A193" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="5">
         <v>1.01832145268231E-2</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="5">
         <v>6.4116001054563196E-4</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="5">
         <v>15.882485431611901</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E193" s="6">
         <v>8.3791336081188596E-57</v>
       </c>
     </row>
@@ -6024,19 +6063,19 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A205" t="s">
+      <c r="A205" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="5">
         <v>2.4171497399236301E-3</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="5">
         <v>1.8444207735487901E-4</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="5">
         <v>13.1051968975218</v>
       </c>
-      <c r="E205" s="1">
+      <c r="E205" s="6">
         <v>3.0746326252958497E-39</v>
       </c>
     </row>
@@ -6196,19 +6235,19 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A216" t="s">
+      <c r="A216" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="5">
         <v>7.7409452189075899E-3</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="5">
         <v>8.1714047351578003E-4</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="5">
         <v>9.4732123420614105</v>
       </c>
-      <c r="E216" s="1">
+      <c r="E216" s="6">
         <v>2.7136728320585398E-21</v>
       </c>
     </row>
@@ -6438,19 +6477,19 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A232" t="s">
+      <c r="A232" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="5">
         <v>1.22594112030113E-2</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="5">
         <v>2.5034029838937998E-3</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="5">
         <v>4.8970985821639399</v>
       </c>
-      <c r="E232" s="1">
+      <c r="E232" s="6">
         <v>9.7262050543173096E-7</v>
       </c>
     </row>
@@ -6818,19 +6857,19 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A257" t="s">
+      <c r="A257" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="5">
         <v>1.7688607645128699E-2</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="5">
         <v>6.3284167126057599E-3</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="5">
         <v>2.7951079153644001</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="5">
         <v>5.18823931924436E-3</v>
       </c>
     </row>
@@ -6973,19 +7012,19 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A267" t="s">
+      <c r="A267" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="5">
         <v>1.4157578918974701E-2</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="5">
         <v>1.5502419213704499E-3</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="5">
         <v>9.1324964986491199</v>
       </c>
-      <c r="E267" s="1">
+      <c r="E267" s="6">
         <v>6.6937549996311902E-20</v>
       </c>
     </row>
@@ -7421,19 +7460,19 @@
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A296" t="s">
+      <c r="A296" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="5">
         <v>4.1276600786432499E-3</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="5">
         <v>3.11293007601114E-4</v>
       </c>
-      <c r="D296">
+      <c r="D296" s="5">
         <v>13.259726295980199</v>
       </c>
-      <c r="E296" s="1">
+      <c r="E296" s="6">
         <v>3.9633965368151302E-40</v>
       </c>
     </row>
@@ -7576,19 +7615,19 @@
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A306" t="s">
+      <c r="A306" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="5">
         <v>4.1315080452175301E-3</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="5">
         <v>1.10710138386073E-3</v>
       </c>
-      <c r="D306">
+      <c r="D306" s="5">
         <v>3.7318244791727699</v>
       </c>
-      <c r="E306">
+      <c r="E306" s="5">
         <v>1.9009794260727901E-4</v>
       </c>
     </row>
@@ -7714,19 +7753,19 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A315" t="s">
+      <c r="A315" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="5">
         <v>9.3395992909847403E-3</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="5">
         <v>2.8196529783366302E-3</v>
       </c>
-      <c r="D315">
+      <c r="D315" s="5">
         <v>3.3123222477165899</v>
       </c>
-      <c r="E315">
+      <c r="E315" s="5">
         <v>9.2524902180325598E-4</v>
       </c>
     </row>
@@ -7869,19 +7908,19 @@
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A325" t="s">
+      <c r="A325" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="5">
         <v>6.0390098949696401E-2</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="5">
         <v>1.2134046588450499E-2</v>
       </c>
-      <c r="D325">
+      <c r="D325" s="5">
         <v>4.9769133907213803</v>
       </c>
-      <c r="E325" s="1">
+      <c r="E325" s="6">
         <v>6.46062116083584E-7</v>
       </c>
     </row>
@@ -8247,19 +8286,19 @@
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A349" t="s">
+      <c r="A349" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="5">
         <v>1.2402430113729299E-2</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="5">
         <v>4.8875929222119098E-3</v>
       </c>
-      <c r="D349">
+      <c r="D349" s="5">
         <v>2.5375333648114999</v>
       </c>
-      <c r="E349">
+      <c r="E349" s="5">
         <v>1.1163672620925699E-2</v>
       </c>
     </row>
@@ -8540,19 +8579,19 @@
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A368" t="s">
+      <c r="A368" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="5">
         <v>4.4799793717868297E-2</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="5">
         <v>7.8737044345311407E-3</v>
       </c>
-      <c r="D368">
+      <c r="D368" s="5">
         <v>5.6897987586875898</v>
       </c>
-      <c r="E368" s="1">
+      <c r="E368" s="6">
         <v>1.27189176442475E-8</v>
       </c>
     </row>
@@ -8678,19 +8717,19 @@
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A377" t="s">
+      <c r="A377" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="5">
         <v>9.0580237354909096E-3</v>
       </c>
-      <c r="C377">
+      <c r="C377" s="5">
         <v>5.5693850361014695E-4</v>
       </c>
-      <c r="D377">
+      <c r="D377" s="5">
         <v>16.2639567506567</v>
       </c>
-      <c r="E377" s="1">
+      <c r="E377" s="6">
         <v>1.77870881983616E-59</v>
       </c>
     </row>
@@ -8920,19 +8959,19 @@
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A393" t="s">
+      <c r="A393" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="5">
         <v>-7.8883493617271302E-2</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="5">
         <v>2.6054419953632599E-2</v>
       </c>
-      <c r="D393">
+      <c r="D393" s="5">
         <v>-3.0276434385280999</v>
       </c>
-      <c r="E393">
+      <c r="E393" s="5">
         <v>2.4646871219903398E-3</v>
       </c>
     </row>
@@ -9196,19 +9235,19 @@
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A411" t="s">
+      <c r="A411" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="5">
         <v>2.7585284093560501E-2</v>
       </c>
-      <c r="C411">
+      <c r="C411" s="5">
         <v>5.1544191444333901E-3</v>
       </c>
-      <c r="D411">
+      <c r="D411" s="5">
         <v>5.3517735598494598</v>
       </c>
-      <c r="E411" s="1">
+      <c r="E411" s="6">
         <v>8.7096345058514805E-8</v>
       </c>
     </row>
@@ -9368,19 +9407,19 @@
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A422" t="s">
+      <c r="A422" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B422">
+      <c r="B422" s="5">
         <v>9.0796239074494595E-3</v>
       </c>
-      <c r="C422">
+      <c r="C422" s="5">
         <v>9.0547686742784397E-4</v>
       </c>
-      <c r="D422">
+      <c r="D422" s="5">
         <v>10.027449882007099</v>
       </c>
-      <c r="E422" s="1">
+      <c r="E422" s="6">
         <v>1.15460062563986E-23</v>
       </c>
     </row>
@@ -9729,19 +9768,19 @@
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A445" t="s">
+      <c r="A445" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="B445">
+      <c r="B445" s="5">
         <v>7.7177322858646199E-3</v>
       </c>
-      <c r="C445">
+      <c r="C445" s="5">
         <v>2.3555057916274801E-3</v>
       </c>
-      <c r="D445">
+      <c r="D445" s="5">
         <v>3.27646500097639</v>
       </c>
-      <c r="E445">
+      <c r="E445" s="5">
         <v>1.0511533978316799E-3</v>
       </c>
     </row>
@@ -9884,19 +9923,19 @@
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A455" t="s">
+      <c r="A455" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B455">
+      <c r="B455" s="5">
         <v>7.4491727193471604E-3</v>
       </c>
-      <c r="C455">
+      <c r="C455" s="5">
         <v>1.1786519786827199E-3</v>
       </c>
-      <c r="D455">
+      <c r="D455" s="5">
         <v>6.3200782368960899</v>
       </c>
-      <c r="E455" s="1">
+      <c r="E455" s="6">
         <v>2.6143091046757601E-10</v>
       </c>
     </row>
@@ -10022,19 +10061,19 @@
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A464" t="s">
+      <c r="A464" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B464">
+      <c r="B464" s="5">
         <v>7.9840166539341308E-3</v>
       </c>
-      <c r="C464">
+      <c r="C464" s="5">
         <v>1.6777161839682301E-3</v>
       </c>
-      <c r="D464">
+      <c r="D464" s="5">
         <v>4.75886012796866</v>
       </c>
-      <c r="E464" s="1">
+      <c r="E464" s="6">
         <v>1.9468928458261901E-6</v>
       </c>
     </row>
@@ -10489,19 +10528,19 @@
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A495" t="s">
+      <c r="A495" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B495">
+      <c r="B495" s="5">
         <v>4.0707043984535597E-3</v>
       </c>
-      <c r="C495">
+      <c r="C495" s="5">
         <v>1.4251838046737001E-3</v>
       </c>
-      <c r="D495">
+      <c r="D495" s="5">
         <v>2.8562662479774499</v>
       </c>
-      <c r="E495">
+      <c r="E495" s="5">
         <v>4.2865551027242502E-3</v>
       </c>
     </row>
@@ -10782,19 +10821,19 @@
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A514" t="s">
+      <c r="A514" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B514">
+      <c r="B514" s="5">
         <v>1.3766180057216601E-2</v>
       </c>
-      <c r="C514">
+      <c r="C514" s="5">
         <v>2.0086162835355401E-3</v>
       </c>
-      <c r="D514">
+      <c r="D514" s="5">
         <v>6.85356390369666</v>
       </c>
-      <c r="E514" s="1">
+      <c r="E514" s="6">
         <v>7.20324512977949E-12</v>
       </c>
     </row>
@@ -10920,19 +10959,19 @@
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A523" t="s">
+      <c r="A523" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B523">
+      <c r="B523" s="5">
         <v>1.32522426577715E-2</v>
       </c>
-      <c r="C523">
+      <c r="C523" s="5">
         <v>1.10620019629118E-3</v>
       </c>
-      <c r="D523">
+      <c r="D523" s="5">
         <v>11.9799677329683</v>
       </c>
-      <c r="E523" s="1">
+      <c r="E523" s="6">
         <v>4.5249977617594403E-33</v>
       </c>
     </row>
@@ -11264,19 +11303,19 @@
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A545" t="s">
+      <c r="A545" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B545">
+      <c r="B545" s="5">
         <v>2.2710566852714401E-2</v>
       </c>
-      <c r="C545">
+      <c r="C545" s="5">
         <v>5.1297437000222797E-3</v>
       </c>
-      <c r="D545">
+      <c r="D545" s="5">
         <v>4.4272322713931702</v>
       </c>
-      <c r="E545" s="1">
+      <c r="E545" s="6">
         <v>9.5449933316048592E-6</v>
       </c>
     </row>
@@ -11419,19 +11458,19 @@
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A555" t="s">
+      <c r="A555" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="B555">
+      <c r="B555" s="5">
         <v>7.4100415555027801E-3</v>
       </c>
-      <c r="C555">
+      <c r="C555" s="5">
         <v>4.4429425221286298E-4</v>
       </c>
-      <c r="D555">
+      <c r="D555" s="5">
         <v>16.6782296160622</v>
       </c>
-      <c r="E555" s="1">
+      <c r="E555" s="6">
         <v>1.8872964178764999E-62</v>
       </c>
     </row>
@@ -11574,19 +11613,19 @@
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A565" t="s">
+      <c r="A565" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="B565">
+      <c r="B565" s="5">
         <v>3.2735117557068701E-3</v>
       </c>
-      <c r="C565" s="1">
+      <c r="C565" s="6">
         <v>4.2419558937485198E-5</v>
       </c>
-      <c r="D565">
+      <c r="D565" s="5">
         <v>77.169867808647595</v>
       </c>
-      <c r="E565">
+      <c r="E565" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11780,19 +11819,19 @@
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A578" t="s">
+      <c r="A578" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="B578">
+      <c r="B578" s="5">
         <v>5.2939302681445201E-3</v>
       </c>
-      <c r="C578">
+      <c r="C578" s="5">
         <v>1.11198654088825E-4</v>
       </c>
-      <c r="D578">
+      <c r="D578" s="5">
         <v>47.6078628066467</v>
       </c>
-      <c r="E578">
+      <c r="E578" s="5">
         <v>0</v>
       </c>
     </row>
@@ -11918,19 +11957,19 @@
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A587" t="s">
+      <c r="A587" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="B587">
+      <c r="B587" s="5">
         <v>4.3254745161744601E-3</v>
       </c>
-      <c r="C587" s="1">
+      <c r="C587" s="6">
         <v>4.5849954965959603E-5</v>
       </c>
-      <c r="D587">
+      <c r="D587" s="5">
         <v>94.339776765011706</v>
       </c>
-      <c r="E587">
+      <c r="E587" s="5">
         <v>0</v>
       </c>
     </row>
@@ -12177,19 +12216,19 @@
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A604" t="s">
+      <c r="A604" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="B604">
+      <c r="B604" s="5">
         <v>1.20038184703063E-2</v>
       </c>
-      <c r="C604">
+      <c r="C604" s="5">
         <v>2.1250482990479201E-3</v>
       </c>
-      <c r="D604">
+      <c r="D604" s="5">
         <v>5.6487273610131004</v>
       </c>
-      <c r="E604" s="1">
+      <c r="E604" s="6">
         <v>1.6163996993537199E-8</v>
       </c>
     </row>
@@ -12315,19 +12354,19 @@
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A613" t="s">
+      <c r="A613" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="B613">
+      <c r="B613" s="5">
         <v>1.5567315362828999E-2</v>
       </c>
-      <c r="C613">
+      <c r="C613" s="5">
         <v>3.3819017054772301E-3</v>
       </c>
-      <c r="D613">
+      <c r="D613" s="5">
         <v>4.6031247264273301</v>
       </c>
-      <c r="E613" s="1">
+      <c r="E613" s="6">
         <v>4.1619880220417004E-6</v>
       </c>
     </row>
@@ -12487,19 +12526,19 @@
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A624" t="s">
+      <c r="A624" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="B624">
+      <c r="B624" s="5">
         <v>4.3924458398475703E-2</v>
       </c>
-      <c r="C624">
+      <c r="C624" s="5">
         <v>7.1295841386560402E-3</v>
       </c>
-      <c r="D624">
+      <c r="D624" s="5">
         <v>6.1608724357877698</v>
       </c>
-      <c r="E624" s="1">
+      <c r="E624" s="6">
         <v>7.2345253027849498E-10</v>
       </c>
     </row>
@@ -12642,19 +12681,19 @@
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A634" t="s">
+      <c r="A634" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="B634">
+      <c r="B634" s="5">
         <v>8.2499505431656208E-3</v>
       </c>
-      <c r="C634">
+      <c r="C634" s="5">
         <v>2.4320780518534801E-3</v>
       </c>
-      <c r="D634">
+      <c r="D634" s="5">
         <v>3.3921405346667899</v>
       </c>
-      <c r="E634">
+      <c r="E634" s="5">
         <v>6.9348860945054604E-4</v>
       </c>
     </row>
